--- a/project folders/project-three/datasets/soldpricerange/soldpricerange.xlsx
+++ b/project folders/project-three/datasets/soldpricerange/soldpricerange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="15240" windowWidth="26740" windowHeight="11220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Total</t>
   </si>
@@ -49,13 +49,19 @@
   </si>
   <si>
     <t>750000 and over</t>
+  </si>
+  <si>
+    <t>Under 149999</t>
+  </si>
+  <si>
+    <t>500000 and over</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,6 +73,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,15 +111,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,20 +463,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" hidden="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -473,7 +510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="2">
         <v>2003</v>
       </c>
@@ -509,7 +546,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="2">
         <v>2008</v>
       </c>
@@ -545,43 +582,184 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="2">
         <v>2013</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:K4)</f>
+        <v>99.9</v>
+      </c>
+      <c r="C4">
+        <v>2.1</v>
+      </c>
+      <c r="D4">
+        <v>5.8</v>
+      </c>
+      <c r="E4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>16.8</v>
+      </c>
+      <c r="G4">
+        <v>15.6</v>
+      </c>
+      <c r="H4">
+        <v>19.8</v>
+      </c>
+      <c r="I4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J4">
+        <v>8.4</v>
+      </c>
+      <c r="K4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <f>SUM(C10:K10)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM(C2:D2)</f>
+        <v>27.200000000000003</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10">
+        <v>24.3</v>
+      </c>
+      <c r="F10">
+        <v>13.6</v>
+      </c>
+      <c r="G10">
+        <v>10.3</v>
+      </c>
+      <c r="H10">
+        <v>13.1</v>
+      </c>
+      <c r="I10">
+        <v>5.2</v>
+      </c>
+      <c r="J10" s="4">
+        <f>SUM(J2:K2)</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:B12" si="1">SUM(C11:K11)</f>
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:C12" si="2">SUM(C3:D3)</f>
+        <v>15.9</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11">
+        <v>21.9</v>
+      </c>
+      <c r="F11">
+        <v>17.7</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>14.2</v>
+      </c>
+      <c r="I11">
+        <v>7.2</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" ref="J11:J12" si="3">SUM(J3:K3)</f>
+        <v>10.100000000000001</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B12">
+        <f>SUM(C12:K12)</f>
+        <v>99.9</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F12">
+        <v>16.8</v>
+      </c>
+      <c r="G12">
+        <v>15.6</v>
+      </c>
+      <c r="H12">
+        <v>19.8</v>
+      </c>
+      <c r="I12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="K12" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
